--- a/property1.xlsx
+++ b/property1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufengzhu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\property\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33460" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33456" windowHeight="17604" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>地址</t>
   </si>
@@ -77,17 +77,85 @@
     <t>cash on cash大于10</t>
   </si>
   <si>
-    <t>GRM最好大于15</t>
+    <t>https://www.redfin.com/TX/Plano/1524-Idyllwild-Dr-75075/home/32160156#redfin-estimate</t>
+  </si>
+  <si>
+    <t>1524 Idyllwild DrPlano, TX 75075</t>
+  </si>
+  <si>
+    <t>月付</t>
+  </si>
+  <si>
+    <t>GRM要小于15</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/dir//33.0388184,-96.7244242/@33.0387988,-96.7944644,12z</t>
+  </si>
+  <si>
+    <t>位置如何</t>
+  </si>
+  <si>
+    <t>凑活，离utd较远</t>
+  </si>
+  <si>
+    <t>10,5,8</t>
+  </si>
+  <si>
+    <t>1724 Westridge DrPlano, TX 75075</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/1724-Westridge-Dr-75075/home/32156338</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?saddr&amp;daddr=33.0104397,-96.7274762</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/3508-Piedmont-Dr-75075/home/32158756</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/2626-E-Park-Blvd-75074/home/31854373#schools</t>
+  </si>
+  <si>
+    <t>一般，在路边</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Richardson/5702-McKinley-Ln-75082/home/32246963#redfin-estimate</t>
+  </si>
+  <si>
+    <t>10,9,6</t>
+  </si>
+  <si>
+    <t>偏</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Richardson/532-Apollo-Rd-75081/home/31971213#schools</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Richardson/3415-Excalibur-Ct-75082/home/32230440</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,13 +178,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,6 +196,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -392,20 +467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="14" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" customWidth="1"/>
+    <col min="12" max="12" width="22.8984375" customWidth="1"/>
+    <col min="15" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,87 +499,1037 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D2">
-        <v>200000</v>
+      <c r="D2" s="1">
+        <v>395000</v>
       </c>
       <c r="E2">
         <v>0.2</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>2296</v>
       </c>
       <c r="G2">
-        <v>3000</v>
-      </c>
-      <c r="I2">
-        <v>1400</v>
-      </c>
-      <c r="K2">
-        <v>3000</v>
-      </c>
-      <c r="N2">
-        <f>100*(12*I2-K2)/D2</f>
-        <v>6.9</v>
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H2">
+        <v>3000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>2550</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>3000</v>
       </c>
       <c r="O2">
-        <f>D2*E2+G2</f>
-        <v>43000</v>
+        <f>100*(12*J2-M2)/D2</f>
+        <v>6.9873417721518987</v>
       </c>
       <c r="P2">
-        <f>F2*(D2-D2*E2)</f>
-        <v>6400</v>
+        <f>D2*E2+H2</f>
+        <v>82000</v>
       </c>
       <c r="Q2">
-        <f>12*I2-K2-P2</f>
-        <v>7400</v>
+        <f>G2*(D2-D2*E2)</f>
+        <v>12102.800000000001</v>
       </c>
       <c r="R2">
-        <f>D2/(12*I2)</f>
-        <v>11.904761904761905</v>
+        <f>12*J2-M2-Q2</f>
+        <v>15497.199999999999</v>
       </c>
       <c r="S2">
-        <f>Q2/O2</f>
-        <v>0.17209302325581396</v>
+        <f>D2/(12*J2)</f>
+        <v>12.908496732026144</v>
+      </c>
+      <c r="T2">
+        <f>R2/P2</f>
+        <v>0.18899024390243901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>296646</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>1875</v>
+      </c>
+      <c r="G3">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>3000</v>
+      </c>
+      <c r="I3">
+        <v>868</v>
+      </c>
+      <c r="J3">
+        <v>2300</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>3000</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O24" si="0">100*(12*J3-M3)/D3</f>
+        <v>8.2927125260411394</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P24" si="1">D3*E3+H3</f>
+        <v>62329.200000000004</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q24" si="2">G3*(D3-D3*E3)</f>
+        <v>9089.23344</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R23" si="3">12*J3-M3-Q3</f>
+        <v>15510.76656</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S23" si="4">D3/(12*J3)</f>
+        <v>10.74804347826087</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T23" si="5">R3/P3</f>
+        <v>0.24885232860360793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>289000</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1732</v>
+      </c>
+      <c r="G4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>2500</v>
+      </c>
+      <c r="I4">
+        <v>768</v>
+      </c>
+      <c r="J4">
+        <v>1950</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>3000</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>7.0588235294117645</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>60300</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>8854.9600000000009</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>11545.039999999999</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>12.350427350427351</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>0.19146003316749585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1">
+        <v>230698</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>1381</v>
+      </c>
+      <c r="G5">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>3000</v>
+      </c>
+      <c r="I5">
+        <v>357</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>3000</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>9.1028097339378746</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>49139.600000000006</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>7068.5867200000002</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>13931.413280000001</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>9.6124166666666664</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>0.28350685150062271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1">
+        <v>327900</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>2118</v>
+      </c>
+      <c r="G6">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>3000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>2600</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>3000</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>8.6001829826166514</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>68580</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>10046.856</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>18153.144</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>10.509615384615385</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>0.26470026246719158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>304255</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1658</v>
+      </c>
+      <c r="G7">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>2000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>3000</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>6.902105142068331</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>63851</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>9322.3732</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>11677.6268</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>12.677291666666667</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>0.18288870651986655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>385000</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2428</v>
+      </c>
+      <c r="G8">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H8">
+        <v>3000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>3050</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <v>3000</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>8.7272727272727266</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>11796.4</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>21803.599999999999</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>10.519125683060109</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>0.27254499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>3000</v>
+      </c>
+      <c r="M9">
+        <v>3000</v>
+      </c>
+      <c r="O9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="M10">
+        <v>3000</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>3000</v>
+      </c>
+      <c r="M11">
+        <v>3000</v>
+      </c>
+      <c r="O11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>3000</v>
+      </c>
+      <c r="M12">
+        <v>3000</v>
+      </c>
+      <c r="O12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H13">
+        <v>3000</v>
+      </c>
+      <c r="M13">
+        <v>3000</v>
+      </c>
+      <c r="O13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>3000</v>
+      </c>
+      <c r="M14">
+        <v>3000</v>
+      </c>
+      <c r="O14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>3000</v>
+      </c>
+      <c r="M15">
+        <v>3000</v>
+      </c>
+      <c r="O15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H16">
+        <v>3000</v>
+      </c>
+      <c r="M16">
+        <v>3000</v>
+      </c>
+      <c r="O16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H17">
+        <v>3000</v>
+      </c>
+      <c r="M17">
+        <v>3000</v>
+      </c>
+      <c r="O17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H18">
+        <v>3000</v>
+      </c>
+      <c r="M18">
+        <v>3000</v>
+      </c>
+      <c r="O18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+      <c r="G19">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>3000</v>
+      </c>
+      <c r="M19">
+        <v>3000</v>
+      </c>
+      <c r="O19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="G20">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>3000</v>
+      </c>
+      <c r="M20">
+        <v>3000</v>
+      </c>
+      <c r="O20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S20" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>3000</v>
+      </c>
+      <c r="M21">
+        <v>3000</v>
+      </c>
+      <c r="O21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="G22">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H22">
+        <v>3000</v>
+      </c>
+      <c r="M22">
+        <v>3000</v>
+      </c>
+      <c r="O22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="M23">
+        <v>3000</v>
+      </c>
+      <c r="O23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S23" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="O24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location="redfin-estimate"/>
+    <hyperlink ref="K3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/property1.xlsx
+++ b/property1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufengzhu/Documents/property/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33456" windowHeight="17604" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33460" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>地址</t>
   </si>
@@ -138,13 +138,46 @@
   </si>
   <si>
     <t>https://www.redfin.com/TX/Richardson/3415-Excalibur-Ct-75082/home/32230440</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Arlington/2915-Janet-Cir-76013/home/32221067</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>uta 离uta近</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/3101-Citadel-Dr-75023/home/31890659#schools</t>
+  </si>
+  <si>
+    <t>比较豪华的</t>
+  </si>
+  <si>
+    <t>10，8，7</t>
+  </si>
+  <si>
+    <t>plano西北</t>
+  </si>
+  <si>
+    <t>1425 Cross Bend Rd</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/1425-Cross-Bend-Rd-75023/home/31908760</t>
+  </si>
+  <si>
+    <t>6，5，7</t>
+  </si>
+  <si>
+    <t>2309 Williams WayPlano, TX 75075</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,6 +193,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,17 +218,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -467,22 +534,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" customWidth="1"/>
-    <col min="11" max="11" width="11.09765625" customWidth="1"/>
-    <col min="12" max="12" width="22.8984375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
     <col min="15" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="12.69921875" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -603,7 +670,7 @@
         <v>0.18899024390243901</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -641,31 +708,31 @@
         <v>3000</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O24" si="0">100*(12*J3-M3)/D3</f>
+        <f t="shared" ref="O3:O32" si="0">100*(12*J3-M3)/D3</f>
         <v>8.2927125260411394</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P24" si="1">D3*E3+H3</f>
+        <f t="shared" ref="P3:P33" si="1">D3*E3+H3</f>
         <v>62329.200000000004</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q24" si="2">G3*(D3-D3*E3)</f>
+        <f t="shared" ref="Q3:Q30" si="2">G3*(D3-D3*E3)</f>
         <v>9089.23344</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R23" si="3">12*J3-M3-Q3</f>
+        <f t="shared" ref="R3:R36" si="3">12*J3-M3-Q3</f>
         <v>15510.76656</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S23" si="4">D3/(12*J3)</f>
+        <f t="shared" ref="S3:S34" si="4">D3/(12*J3)</f>
         <v>10.74804347826087</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T23" si="5">R3/P3</f>
+        <f t="shared" ref="T3:T36" si="5">R3/P3</f>
         <v>0.24885232860360793</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -721,7 +788,7 @@
         <v>0.19146003316749585</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -777,7 +844,7 @@
         <v>0.28350685150062271</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -833,7 +900,7 @@
         <v>0.26470026246719158</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>34</v>
       </c>
@@ -889,7 +956,7 @@
         <v>0.18288870651986655</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>36</v>
       </c>
@@ -945,121 +1012,163 @@
         <v>0.27254499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1">
+        <v>185900</v>
+      </c>
       <c r="E9">
         <v>0.2</v>
       </c>
-      <c r="G9">
-        <v>3.8300000000000001E-2</v>
+      <c r="F9" s="1">
+        <v>1106</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="H9">
         <v>3000</v>
       </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>1800</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
       <c r="M9">
         <v>3000</v>
       </c>
-      <c r="O9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>10.005379236148467</v>
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>40180</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5636.4880000000003</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
+        <v>12963.511999999999</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>8.606481481481481</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>0.32263593827775011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <v>298540</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1807</v>
+      </c>
+      <c r="G10">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <v>2150</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10">
+        <v>3000</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>7.6371675487371879</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>62708</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>9147.2656000000006</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>13652.734399999999</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>11.571317829457364</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>0.217719180965746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>3000</v>
+      </c>
+      <c r="M11">
+        <v>3000</v>
+      </c>
+      <c r="O11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
         <v>-3000</v>
       </c>
-      <c r="S9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9">
+      <c r="S11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E10">
-        <v>0.2</v>
-      </c>
-      <c r="G10">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="H10">
-        <v>3000</v>
-      </c>
-      <c r="M10">
-        <v>3000</v>
-      </c>
-      <c r="O10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
-        <v>-3000</v>
-      </c>
-      <c r="S10" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="G11">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="H11">
-        <v>3000</v>
-      </c>
-      <c r="M11">
-        <v>3000</v>
-      </c>
-      <c r="O11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
-        <v>-3000</v>
-      </c>
-      <c r="S11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>0.2</v>
       </c>
@@ -1249,7 +1358,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>0.2</v>
       </c>
@@ -1287,7 +1396,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>0.2</v>
       </c>
@@ -1325,7 +1434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>0.2</v>
       </c>
@@ -1363,7 +1472,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>0.2</v>
       </c>
@@ -1401,7 +1510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>0.2</v>
       </c>
@@ -1439,7 +1548,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>0.2</v>
       </c>
@@ -1477,10 +1586,16 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>0.2</v>
+      </c>
       <c r="G23">
         <v>3.8300000000000001E-2</v>
       </c>
+      <c r="H23">
+        <v>3000</v>
+      </c>
       <c r="M23">
         <v>3000</v>
       </c>
@@ -1490,7 +1605,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
@@ -1504,23 +1619,365 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>0.2</v>
+      </c>
+      <c r="H24">
+        <v>3000</v>
+      </c>
+      <c r="M24">
+        <v>3000</v>
+      </c>
       <c r="O24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S24" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0.2</v>
+      </c>
+      <c r="H25">
+        <v>3000</v>
+      </c>
+      <c r="M25">
+        <v>3000</v>
+      </c>
+      <c r="O25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0.2</v>
+      </c>
+      <c r="H26">
+        <v>3000</v>
+      </c>
+      <c r="M26">
+        <v>3000</v>
+      </c>
+      <c r="O26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="H27">
+        <v>3000</v>
+      </c>
+      <c r="M27">
+        <v>3000</v>
+      </c>
+      <c r="O27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S27" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="H28">
+        <v>3000</v>
+      </c>
+      <c r="M28">
+        <v>3000</v>
+      </c>
+      <c r="O28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="S28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1">
+        <v>385000</v>
+      </c>
+      <c r="E29">
+        <v>0.2</v>
+      </c>
+      <c r="F29">
+        <v>2201</v>
+      </c>
+      <c r="G29">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H29">
+        <v>3000</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29">
+        <v>2250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29">
+        <v>3000</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>6.2337662337662341</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>11673.2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>12326.8</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>14.25925925925926</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>0.154085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O32" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S33" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S34" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T36" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/property1.xlsx
+++ b/property1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="211">
   <si>
     <t>地址</t>
   </si>
@@ -640,6 +640,39 @@
   </si>
   <si>
     <t>房间比较大</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/2225-Evergreen-Dr-75075/home/31935758</t>
+  </si>
+  <si>
+    <t>2225 Evergreen DrPlano, TX 75075</t>
+  </si>
+  <si>
+    <t>8,6,7</t>
+  </si>
+  <si>
+    <t>3112 Stanford DrPlano, TX 75075</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/3112-Stanford-Dr-75075/home/31898825#property-history</t>
+  </si>
+  <si>
+    <t>房间大小还可以，可能有第五间房</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/2128-McDaniel-Cir-75075/home/31904262#schools</t>
+  </si>
+  <si>
+    <t>2128 McDaniel CirPlano, TX 75075</t>
+  </si>
+  <si>
+    <t>https://www.redfin.com/TX/Plano/2513-Bluffton-Dr-75075/home/31895425#redfin-estimate</t>
+  </si>
+  <si>
+    <t>2513 Bluffton DrPlano, TX 75075</t>
+  </si>
+  <si>
+    <t>3101 Citadel DrPlano, TX 75023</t>
   </si>
 </sst>
 </file>
@@ -1449,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4286,171 +4319,270 @@
       </c>
     </row>
     <row r="43" spans="1:24">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="1">
+        <v>374900</v>
+      </c>
       <c r="E43">
         <v>0.2</v>
       </c>
+      <c r="F43" s="1">
+        <v>2032</v>
+      </c>
       <c r="G43" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H43">
         <v>3000</v>
+      </c>
+      <c r="I43" t="s">
+        <v>202</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2200</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="P43">
         <v>3000</v>
       </c>
-      <c r="R43" t="e">
+      <c r="R43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>6.2416644438516942</v>
       </c>
       <c r="S43">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>77980</v>
       </c>
       <c r="T43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11366.968000000001</v>
       </c>
       <c r="U43">
         <f t="shared" si="10"/>
-        <v>-3000</v>
-      </c>
-      <c r="V43" t="e">
+        <v>12033.031999999999</v>
+      </c>
+      <c r="V43">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>14.200757575757576</v>
       </c>
       <c r="W43">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0.15430920748909976</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:24">
+      <c r="A44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="1">
+        <v>299750</v>
+      </c>
       <c r="E44">
         <v>0.2</v>
       </c>
+      <c r="F44" s="1">
+        <v>1703</v>
+      </c>
       <c r="G44" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H44">
         <v>3000</v>
+      </c>
+      <c r="I44">
+        <v>467</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2300</v>
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>597</v>
+      </c>
+      <c r="M44">
+        <v>61</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="P44">
         <v>3000</v>
       </c>
-      <c r="R44" t="e">
+      <c r="R44">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>8.2068390325271068</v>
       </c>
       <c r="S44">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>62950</v>
       </c>
       <c r="T44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9088.42</v>
       </c>
       <c r="U44">
         <f t="shared" si="10"/>
-        <v>-3000</v>
-      </c>
-      <c r="V44" t="e">
+        <v>15511.58</v>
+      </c>
+      <c r="V44">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>10.860507246376812</v>
       </c>
       <c r="W44">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0.24641111993645751</v>
       </c>
     </row>
     <row r="45" spans="1:24">
+      <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="1">
+        <v>400000</v>
+      </c>
       <c r="E45">
         <v>0.2</v>
       </c>
+      <c r="F45" s="1">
+        <v>2285</v>
+      </c>
       <c r="G45" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H45">
         <v>3000</v>
+      </c>
+      <c r="I45">
+        <v>687</v>
+      </c>
+      <c r="J45" s="6">
+        <v>2250</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-35</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="P45">
         <v>3000</v>
       </c>
-      <c r="R45" t="e">
+      <c r="R45">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="S45">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>83000</v>
       </c>
       <c r="T45">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12128.000000000002</v>
       </c>
       <c r="U45">
         <f t="shared" si="10"/>
-        <v>-3000</v>
-      </c>
-      <c r="V45" t="e">
+        <v>11871.999999999998</v>
+      </c>
+      <c r="V45">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>14.814814814814815</v>
       </c>
       <c r="W45">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0.14303614457831323</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:24">
+      <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="1">
+        <v>372900</v>
+      </c>
       <c r="E46">
         <v>0.2</v>
       </c>
+      <c r="F46">
+        <v>1944</v>
+      </c>
       <c r="G46" s="3">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="H46">
         <v>3000</v>
+      </c>
+      <c r="I46">
+        <v>867</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2250</v>
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="M46">
+        <v>68</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="P46">
         <v>3000</v>
       </c>
-      <c r="R46" t="e">
+      <c r="R46">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>6.436041834271923</v>
       </c>
       <c r="S46">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>77580</v>
       </c>
       <c r="T46">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11306.328000000001</v>
       </c>
       <c r="U46">
         <f t="shared" si="10"/>
-        <v>-3000</v>
-      </c>
-      <c r="V46" t="e">
+        <v>12693.671999999999</v>
+      </c>
+      <c r="V46">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>13.811111111111112</v>
       </c>
       <c r="W46">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0.16362041763341065</v>
+      </c>
+      <c r="X46" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -5240,11 +5372,14 @@
       </c>
     </row>
     <row r="63" spans="1:23" s="11" customFormat="1" ht="14.4">
+      <c r="A63" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="C63" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="12">
-        <v>385000</v>
+        <v>380000</v>
       </c>
       <c r="E63" s="11">
         <v>0.2</v>
@@ -5276,27 +5411,27 @@
       </c>
       <c r="R63" s="11">
         <f t="shared" si="7"/>
-        <v>6.2337662337662341</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="S63" s="11">
         <f t="shared" si="8"/>
-        <v>80000</v>
+        <v>79000</v>
       </c>
       <c r="T63" s="11">
         <f t="shared" si="9"/>
-        <v>11673.2</v>
+        <v>11521.6</v>
       </c>
       <c r="U63" s="11">
         <f t="shared" si="10"/>
-        <v>12326.8</v>
+        <v>12478.4</v>
       </c>
       <c r="V63" s="11">
         <f t="shared" si="11"/>
-        <v>14.25925925925926</v>
+        <v>14.074074074074074</v>
       </c>
       <c r="W63" s="11">
         <f t="shared" si="6"/>
-        <v>0.154085</v>
+        <v>0.15795443037974682</v>
       </c>
     </row>
     <row r="64" spans="1:23">
